--- a/php/exemplo.xlsx
+++ b/php/exemplo.xlsx
@@ -53,7 +53,9 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -67,7 +69,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" customHeight="0">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>ID</t>
@@ -90,7 +92,8 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Author 1 Institution</t>
+          <t>Author 1 Insti
+    tution</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -120,7 +123,8 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Author 4 Institution</t>
+          <t>Author 4 I
+    nstitution</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
@@ -150,7 +154,8 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Author 7 Institution</t>
+          <t>Author
+     7 Institution</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
@@ -174,7 +179,7 @@
         </is>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" customHeight="0">
       <c r="B2" s="2" t="inlineStr">
         <is>
           <t>Structural elucidation of a novel pyrrolizidine alkaloid isolated from Crotalaria retusa L.</t>
@@ -221,7 +226,7 @@
         </is>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" customHeight="0">
       <c r="A3" s="2" t="inlineStr">
         <is>
           <t>137458</t>
@@ -248,7 +253,7 @@
         </is>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" customHeight="0">
       <c r="A4" s="2" t="inlineStr">
         <is>
           <t>137459</t>
@@ -295,7 +300,7 @@
         </is>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" customHeight="0">
       <c r="A5" s="2" t="inlineStr">
         <is>
           <t>137460</t>
@@ -402,7 +407,7 @@
         </is>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" customHeight="0">
       <c r="A6" s="2" t="inlineStr">
         <is>
           <t>137464</t>
@@ -469,7 +474,7 @@
         </is>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" customHeight="0">
       <c r="A7" s="2" t="inlineStr">
         <is>
           <t>137465</t>
@@ -516,7 +521,7 @@
         </is>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" customHeight="0">
       <c r="A8" s="2" t="inlineStr">
         <is>
           <t>137466</t>
@@ -553,7 +558,7 @@
         </is>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" customHeight="0">
       <c r="A9" s="2" t="inlineStr">
         <is>
           <t>137468</t>
@@ -630,7 +635,7 @@
         </is>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" customHeight="0">
       <c r="A10" s="2" t="inlineStr">
         <is>
           <t>137469</t>
@@ -677,7 +682,7 @@
         </is>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" customHeight="0">
       <c r="A11" s="2" t="inlineStr">
         <is>
           <t>137470</t>
@@ -744,7 +749,7 @@
         </is>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" customHeight="0">
       <c r="A12" s="2" t="inlineStr">
         <is>
           <t>137471</t>
@@ -801,7 +806,7 @@
         </is>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" customHeight="0">
       <c r="A13" s="2" t="inlineStr">
         <is>
           <t>137472</t>
@@ -848,7 +853,7 @@
         </is>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" customHeight="0">
       <c r="A14" s="2" t="inlineStr">
         <is>
           <t>137473</t>
@@ -955,7 +960,7 @@
         </is>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" customHeight="0">
       <c r="A15" s="2" t="inlineStr">
         <is>
           <t>137474</t>
@@ -1052,7 +1057,7 @@
         </is>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" customHeight="0">
       <c r="A16" s="2" t="inlineStr">
         <is>
           <t>137476</t>
@@ -1089,7 +1094,7 @@
         </is>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" customHeight="0">
       <c r="A17" s="2" t="inlineStr">
         <is>
           <t>137477</t>
@@ -1136,7 +1141,7 @@
         </is>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" customHeight="0">
       <c r="A18" s="2" t="inlineStr">
         <is>
           <t>137478</t>
@@ -1213,7 +1218,7 @@
         </is>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" customHeight="0">
       <c r="A19" s="2" t="inlineStr">
         <is>
           <t>137479</t>
@@ -1250,7 +1255,7 @@
         </is>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" customHeight="0">
       <c r="A20" s="2" t="inlineStr">
         <is>
           <t>137480</t>
@@ -1307,7 +1312,7 @@
         </is>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" customHeight="0">
       <c r="A21" s="2" t="inlineStr">
         <is>
           <t>137486</t>
@@ -1364,7 +1369,7 @@
         </is>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" customHeight="0">
       <c r="A22" s="2" t="inlineStr">
         <is>
           <t>137487</t>
@@ -1431,7 +1436,7 @@
         </is>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" customHeight="0">
       <c r="A23" s="2" t="inlineStr">
         <is>
           <t>137555</t>
@@ -1518,7 +1523,7 @@
         </is>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" customHeight="0">
       <c r="A24" s="2" t="inlineStr">
         <is>
           <t>137556</t>
@@ -1575,7 +1580,7 @@
         </is>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" customHeight="0">
       <c r="A25" s="2" t="inlineStr">
         <is>
           <t>139165</t>
@@ -1602,7 +1607,7 @@
         </is>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" customHeight="0">
       <c r="A26" s="2" t="inlineStr">
         <is>
           <t>139166</t>
@@ -1629,7 +1634,7 @@
         </is>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" customHeight="0">
       <c r="A27" s="2" t="inlineStr">
         <is>
           <t>139167</t>
@@ -1656,7 +1661,7 @@
         </is>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" customHeight="0">
       <c r="A28" s="2" t="inlineStr">
         <is>
           <t>139168</t>
@@ -1683,7 +1688,7 @@
         </is>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" customHeight="0">
       <c r="A29" s="2" t="inlineStr">
         <is>
           <t>139169</t>
@@ -1720,7 +1725,7 @@
         </is>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" customHeight="0">
       <c r="A30" s="2" t="inlineStr">
         <is>
           <t>139170</t>
@@ -1747,7 +1752,7 @@
         </is>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" customHeight="0">
       <c r="A31" s="2" t="inlineStr">
         <is>
           <t>139172</t>
@@ -1774,7 +1779,7 @@
         </is>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" customHeight="0">
       <c r="A32" s="2" t="inlineStr">
         <is>
           <t>139173</t>
@@ -1801,7 +1806,7 @@
         </is>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" customHeight="0">
       <c r="A33" s="2" t="inlineStr">
         <is>
           <t>139174</t>
@@ -1828,7 +1833,7 @@
         </is>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" customHeight="0">
       <c r="A34" s="2" t="inlineStr">
         <is>
           <t>139175</t>
@@ -1855,7 +1860,7 @@
         </is>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" customHeight="0">
       <c r="A35" s="2" t="inlineStr">
         <is>
           <t>139176</t>
@@ -1882,7 +1887,7 @@
         </is>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" customHeight="0">
       <c r="A36" s="2" t="inlineStr">
         <is>
           <t>139177</t>
@@ -1909,7 +1914,7 @@
         </is>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" customHeight="0">
       <c r="A37" s="2" t="inlineStr">
         <is>
           <t>139178</t>
@@ -1936,7 +1941,7 @@
         </is>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" customHeight="0">
       <c r="A38" s="2" t="inlineStr">
         <is>
           <t>139180</t>
@@ -1983,7 +1988,7 @@
         </is>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" customHeight="0">
       <c r="A39" s="2" t="inlineStr">
         <is>
           <t>139181</t>
@@ -2010,7 +2015,7 @@
         </is>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" customHeight="0">
       <c r="A40" s="2" t="inlineStr">
         <is>
           <t>139183</t>
@@ -2037,7 +2042,7 @@
         </is>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" customHeight="0">
       <c r="A41" s="2" t="inlineStr">
         <is>
           <t>139184</t>
@@ -2074,7 +2079,7 @@
         </is>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" customHeight="0">
       <c r="A42" s="2" t="inlineStr">
         <is>
           <t>139185</t>
@@ -2101,7 +2106,7 @@
         </is>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" customHeight="0">
       <c r="A43" s="2" t="inlineStr">
         <is>
           <t>139186</t>
@@ -2128,7 +2133,7 @@
         </is>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" customHeight="0">
       <c r="A44" s="2" t="inlineStr">
         <is>
           <t>139187</t>
@@ -2155,7 +2160,7 @@
         </is>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" customHeight="0">
       <c r="A45" s="2" t="inlineStr">
         <is>
           <t>139188</t>
@@ -2182,7 +2187,7 @@
         </is>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" customHeight="0">
       <c r="A46" s="2" t="inlineStr">
         <is>
           <t>139190</t>
@@ -2209,7 +2214,7 @@
         </is>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" customHeight="0">
       <c r="A47" s="2" t="inlineStr">
         <is>
           <t>139192</t>
@@ -2236,7 +2241,7 @@
         </is>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" customHeight="0">
       <c r="A48" s="2" t="inlineStr">
         <is>
           <t>139193</t>
@@ -2283,7 +2288,7 @@
         </is>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" customHeight="0">
       <c r="A49" s="2" t="inlineStr">
         <is>
           <t>139194</t>
@@ -2310,7 +2315,7 @@
         </is>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" customHeight="0">
       <c r="A50" s="2" t="inlineStr">
         <is>
           <t>139195</t>
@@ -2337,7 +2342,7 @@
         </is>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" customHeight="0">
       <c r="A51" s="2" t="inlineStr">
         <is>
           <t>139189</t>
@@ -2364,7 +2369,7 @@
         </is>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" customHeight="0">
       <c r="A52" s="2" t="inlineStr">
         <is>
           <t>139191</t>
@@ -2391,7 +2396,7 @@
         </is>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" customHeight="0">
       <c r="A53" s="2" t="inlineStr">
         <is>
           <t>139179</t>
@@ -2418,7 +2423,7 @@
         </is>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" customHeight="0">
       <c r="A54" s="2" t="inlineStr">
         <is>
           <t>139171</t>
@@ -2485,7 +2490,7 @@
         </is>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" customHeight="0">
       <c r="A55" s="2" t="inlineStr">
         <is>
           <t>137467</t>
@@ -2512,7 +2517,7 @@
         </is>
       </c>
     </row>
-    <row r="56" spans="1:21">
+    <row r="56" spans="1:21" customHeight="0">
       <c r="A56" s="2" t="inlineStr">
         <is>
           <t>139182</t>
@@ -2619,7 +2624,7 @@
         </is>
       </c>
     </row>
-    <row r="57" spans="1:21">
+    <row r="57" spans="1:21" customHeight="0">
       <c r="A57" s="2" t="inlineStr">
         <is>
           <t>137461</t>
@@ -2726,7 +2731,7 @@
         </is>
       </c>
     </row>
-    <row r="58" spans="1:17">
+    <row r="58" spans="1:17" customHeight="0">
       <c r="A58" s="2" t="inlineStr">
         <is>
           <t>137462</t>
@@ -2808,7 +2813,7 @@
         </is>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" customHeight="0">
       <c r="A59" s="2" t="inlineStr">
         <is>
           <t>137475</t>
@@ -2835,7 +2840,7 @@
         </is>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" customHeight="0">
       <c r="A60" s="2" t="inlineStr">
         <is>
           <t>139532</t>
@@ -2862,7 +2867,7 @@
         </is>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" customHeight="0">
       <c r="A61" s="2" t="inlineStr">
         <is>
           <t>139533</t>
@@ -2889,7 +2894,7 @@
         </is>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" customHeight="0">
       <c r="A62" s="2" t="inlineStr">
         <is>
           <t>139534</t>
@@ -2916,7 +2921,7 @@
         </is>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" customHeight="0">
       <c r="A63" s="2" t="inlineStr">
         <is>
           <t>139531</t>

--- a/php/exemplo.xlsx
+++ b/php/exemplo.xlsx
@@ -53,9 +53,7 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -92,8 +90,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Author 1 Insti
-    tution</t>
+          <t>Author 1 Institution</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -123,8 +120,7 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Author 4 I
-    nstitution</t>
+          <t>Author 4 Institution</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
@@ -154,8 +150,7 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Author
-     7 Institution</t>
+          <t>Author 7 Institution</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
